--- a/Citi AA 2017.xlsx
+++ b/Citi AA 2017.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +207,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -553,12 +560,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -903,11 +913,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -927,115 +940,115 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>42796</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>144.41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>42796</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>144.41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>42796</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>193.47</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>42796</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>193.47</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>42797</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="5">
         <v>42822</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>11.2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="5">
         <v>42822</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>11.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>42831</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>683.76</v>
       </c>
     </row>

--- a/Citi AA 2017.xlsx
+++ b/Citi AA 2017.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizk\Documents\_Personal\Recon\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="18195" windowHeight="8475"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5664"/>
   </bookViews>
   <sheets>
     <sheet name="MC_298_CURRENT_VIEW" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>Status</t>
   </si>
@@ -69,6 +74,48 @@
   </si>
   <si>
     <t>AUTOPAY 999990000057300RAUTOPAY AUTO-PMT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOPAY 999990000057300RAUTOPAY AUTO-PMT
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WESTSIDE DIAGNOSTIC CE CANOGA PARK   CA 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEMBERSHIP FEE JUL 17-JUN 18            
+</t>
+  </si>
+  <si>
+    <t>AMERICAN00121213151180 08004337300   TX 
+NAME:   KERRIGAN/KAREN               
+DEPART: 06/28/2017
+RDU   TO LAX  : AA: CLASS: Y : STOP: X
+LAX   TO RDU  : AA: CLASS: Y : STOP: O</t>
+  </si>
+  <si>
+    <t>AMERICAN00121213151172 08004337300   TX 
+NAME:   KLEINFINGHERLECUONA/         
+DEPART: 06/28/2017
+RDU   TO LAX  : AA: CLASS: Y : STOP: X
+LAX   TO RDU  : AA: CLASS: Y : STOP: O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCDONALD'S M2115 OF    VAN NUYS      CA 
+</t>
+  </si>
+  <si>
+    <t>AMERICAN00106506518672 08004337300   TX 
+NAME:   KLEINFINGHERLECUONA/         
+DEPART: 05/15/2017
+RVU   TO FEE  : AA: CLASS: Y : STOP: O</t>
+  </si>
+  <si>
+    <t>AMERICAN00121272429364 08004337300   TX 
+NAME:   KERRIGAN/KAREN               
+DEPART: 05/29/2017
+PHL   TO LAX  : AA: CLASS: Y : STOP: O</t>
   </si>
 </sst>
 </file>
@@ -219,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +444,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -560,7 +613,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -569,6 +622,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -620,6 +679,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -667,7 +729,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -702,7 +764,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -911,19 +973,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="45.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -940,7 +1002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -954,7 +1016,7 @@
         <v>144.41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -968,7 +1030,7 @@
         <v>144.41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -982,7 +1044,7 @@
         <v>193.47</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -996,7 +1058,7 @@
         <v>193.47</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1010,7 +1072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1024,7 +1086,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1038,7 +1100,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1050,9 +1112,194 @@
       </c>
       <c r="E9" s="1">
         <v>683.76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2">
+        <v>42860</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>42861</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>42870</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1">
+        <v>25.89</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2">
+        <v>42892</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>42905</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10.42</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2">
+        <v>42913</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2">
+        <v>42913</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>42922</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
+        <v>13.91</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="9">
+        <v>42926</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>42950</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1146.73</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>42953</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<sisl xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="82ad3a63-90ad-4a46-a3cb-757f4658e205" origin="userSelected">
+  <element uid="768aceb2-b366-4b48-827b-e820edc548bd" value=""/>
+</sisl>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85A948AF-9C80-4419-97A4-0589B5313A19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>